--- a/medicine/Enfance/Patrick_Delperdange/Patrick_Delperdange.xlsx
+++ b/medicine/Enfance/Patrick_Delperdange/Patrick_Delperdange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patrick Delperdange, né le 8 avril 1960 à Charleroi (province de Hainaut), est un écrivain et scénariste de bande dessinée belge francophone, spécialisé dans le roman policier et la littérature d'enfance et de jeunesse. Il vit et travaille à Bruxelles.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patrick Delperdange naît le 8 avril 1960 à Charleroi[1]. Il publie plusieurs ouvrages en littérature jeunesse (la trilogie L’Œil du Milieu chez Nathan, Julien d’Ombres chez Gallimard, Comme une Bombe et Tombé des nues chez Mijade). En 1988, il écrit la pièce de théâtre Nuit d'amour mise en scène par Gabriel Garran[2]. Cette pièce lui vaut d'être récipiendaire du prix du Jeune Théâtre de la Communauté française[3]. Il est par ailleurs scénariste de bande dessinée (en particulier pour la série S.T.A.R. chez Casterman[4]). Il est également l’auteur de Coup de froid, un roman noir paru chez Actes Sud, ainsi que de Chants des gorges, publié en 2005 par les Éditions Sabine Wespieser, roman qui remporte le prix Rossel[3], prix littéraire le plus important de Belgique francophone, le jury saluant « cette création littéraire tellurique et sacrificielle, écrite dans une langue expressionniste ». Il se voit également décerner le prix Rossel des Jeunes pour ce même roman[5].
-Il traduit par ailleurs plus d'une dizaine d'auteurs anglais et américains, dont Washington Irving, Clive Cussler, R.J. Pineiro, H. G. Wells, C. Ashton, D. Kirk et R. Benson[6].
-À propos des conventions du polar, il déclare en 1997[7] : « Assez de cette classification. Mon travail actuel, c'est faire éclater les barrières que l'on pose depuis que la littérature existe. Je n'arrive plus à considérer les genres les uns par rapport aux autres ».
-Patrick Delperdange est lauréat d'une bourse de la Fédération Wallonie-Bruxelles pour l'aide à la création en 2008 ainsi qu'une autre bourse de création 2020 également de la Fédération Wallonie-Bruxelles[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patrick Delperdange naît le 8 avril 1960 à Charleroi. Il publie plusieurs ouvrages en littérature jeunesse (la trilogie L’Œil du Milieu chez Nathan, Julien d’Ombres chez Gallimard, Comme une Bombe et Tombé des nues chez Mijade). En 1988, il écrit la pièce de théâtre Nuit d'amour mise en scène par Gabriel Garran. Cette pièce lui vaut d'être récipiendaire du prix du Jeune Théâtre de la Communauté française. Il est par ailleurs scénariste de bande dessinée (en particulier pour la série S.T.A.R. chez Casterman). Il est également l’auteur de Coup de froid, un roman noir paru chez Actes Sud, ainsi que de Chants des gorges, publié en 2005 par les Éditions Sabine Wespieser, roman qui remporte le prix Rossel, prix littéraire le plus important de Belgique francophone, le jury saluant « cette création littéraire tellurique et sacrificielle, écrite dans une langue expressionniste ». Il se voit également décerner le prix Rossel des Jeunes pour ce même roman.
+Il traduit par ailleurs plus d'une dizaine d'auteurs anglais et américains, dont Washington Irving, Clive Cussler, R.J. Pineiro, H. G. Wells, C. Ashton, D. Kirk et R. Benson.
+À propos des conventions du polar, il déclare en 1997 : « Assez de cette classification. Mon travail actuel, c'est faire éclater les barrières que l'on pose depuis que la littérature existe. Je n'arrive plus à considérer les genres les uns par rapport aux autres ».
+Patrick Delperdange est lauréat d'une bourse de la Fédération Wallonie-Bruxelles pour l'aide à la création en 2008 ainsi qu'une autre bourse de création 2020 également de la Fédération Wallonie-Bruxelles.
 </t>
         </is>
       </c>
@@ -547,23 +561,141 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série L'Œil du milieu
-Prisonnier dans l'île Nathan, 2003
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série L'Œil du milieu</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prisonnier dans l'île Nathan, 2003
 La Nymphe et son secret Nathan, 2003
-Le Complot des ménestrels Nathan, 2004
-Série Le Royaume des Euménides
-Julien d'Ombres Gallimard, coll. « Hors-Piste », 2005
-Série Ishango
-Titres parus chez Nathan
+Le Complot des ménestrels Nathan, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Patrick_Delperdange</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Delperdange</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres principales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Le Royaume des Euménides</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Julien d'Ombres Gallimard, coll. « Hors-Piste », 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Patrick_Delperdange</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Delperdange</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres principales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Ishango</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Titres parus chez Nathan
 La Nuit des métamorphoses (2010)
 La Voix du marabout (2011)
-L'Armée des ombres blanches (2011)
-Autres romans et nouvelles
-1985 : Place de Londres, roman policier (en collaboration avec Anita Van Belle)
-1987 : Monk, roman policier - Prix Simenon[3]
+L'Armée des ombres blanches (2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Patrick_Delperdange</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Delperdange</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres principales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres romans et nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1985 : Place de Londres, roman policier (en collaboration avec Anita Van Belle)
+1987 : Monk, roman policier - Prix Simenon
 1987 : Deux taxis et un vieil imperméable bleu, nouvelle dans le recueil Bruxelles littéraire
-1988 : Nuit d'amour[2], théâtre (en collaboration avec Anita Van Belle) - Prix du Jeune Théâtre de la Communauté française de Belgique[3]
+1988 : Nuit d'amour, théâtre (en collaboration avec Anita Van Belle) - Prix du Jeune Théâtre de la Communauté française de Belgique
 1988 : Comme une bombe, roman policier jeunesse
 1990 : Il y a un homme qui marche sur le toit, nouvelle jeunesse dans le recueil Les Garçons
 1991: De plus en plus noir, roman jeunesse
@@ -580,7 +712,7 @@
 2001 : La Beauté Louise, roman jeunesse
 2002 : L'Étrange Métamorphose, roman jeunesse
 2004 : Toison d'or, récit érotique (illustré par André Taymans) - 2012 réédition numérique
-2005 : Chants des gorges, roman - Prix Victor Rossel[3]
+2005 : Chants des gorges, roman - Prix Victor Rossel
 2006 : De l'autre côté du monde, nouvelle dans le recueil Espace(s) no 2
 2008 : Faces, faciès, façades, nouvelle dans le recueil Espace(s) no 4
 2009 : Un petit malentendu sans importance, nouvelle dans le recueil Compartiment auteurs
@@ -611,43 +743,116 @@
 2021 : Nous n'irons plus au bois, nouvelle
 2023: Sur la route de Shangri-La (roman jeunesse), Paris, L'École des loisirs, 2023 (ISBN 9782211331555)
 2023: Des Rapports secrets, théâtre
-2024: Les Corps sensibles, nouvelles
-Bandes dessinées
-One-shots
-Assassine[13] (dessins André Taymans), Casterman, 2004 - Réédition colorisée, Place du Sablon, 2015
-Blogs
-2009 : Apparitions Chaque jour une photo accompagnée de son texte.
+2024: Les Corps sensibles, nouvelles</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Patrick_Delperdange</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Delperdange</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres principales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>One-shots</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Assassine (dessins André Taymans), Casterman, 2004 - Réédition colorisée, Place du Sablon, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Patrick_Delperdange</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Delperdange</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres principales</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Blogs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2009 : Apparitions Chaque jour une photo accompagnée de son texte.
 2012 : Sans mobile apparent Tumblr</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Patrick_Delperdange</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Patrick_Delperdange</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2001 :  prix avenir[15] de la Chambre belge des experts en bande dessinée avec Thierry Cayman pour S.T.A.R..</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2001 :  prix avenir de la Chambre belge des experts en bande dessinée avec Thierry Cayman pour S.T.A.R..</t>
         </is>
       </c>
     </row>
